--- a/cookies/cookies_data_firefox_webdriver.xlsx
+++ b/cookies/cookies_data_firefox_webdriver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>www.pineconedata.com</t>
+  </si>
+  <si>
+    <t>session</t>
   </si>
   <si>
     <t>Lax</t>
@@ -480,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1735673037</v>
+        <v>1736828073</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1735673100</v>
+        <v>1738815273</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -531,8 +534,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/cookies/cookies_data_firefox_webdriver.xlsx
+++ b/cookies/cookies_data_firefox_webdriver.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1736828073</v>
+        <v>1736851107</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1738815273</v>
+        <v>1738838307</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
